--- a/public/format_biodata.xlsx
+++ b/public/format_biodata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projek Ricko\dispora-papua\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43FE9B2-4BAC-4494-9598-A9D8B97C0EFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8E96C7-D66D-45A0-8B34-559091D82A31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{0E50471C-7C9E-491A-A24D-1EAF7AC9CFB9}"/>
   </bookViews>
@@ -47,9 +47,6 @@
     <t>:</t>
   </si>
   <si>
-    <t>M.WILDAN ABRORI</t>
-  </si>
-  <si>
     <t>Nomor Kartu Keluarga</t>
   </si>
   <si>
@@ -371,6 +368,9 @@
   </si>
   <si>
     <t>KOTA BONTANG</t>
+  </si>
+  <si>
+    <t>RICKY</t>
   </si>
 </sst>
 </file>
@@ -1081,8 +1081,8 @@
   </sheetPr>
   <dimension ref="B1:Q104"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1103,46 +1103,46 @@
     <row r="1" spans="2:17" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I1" s="49"/>
       <c r="J1" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="L1" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="L1" s="42" t="s">
+      <c r="M1" s="42" t="s">
         <v>95</v>
-      </c>
-      <c r="M1" s="42" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="2" spans="2:17" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I2" s="51"/>
       <c r="J2" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="K2" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="L2" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="K2" s="50" t="s">
+      <c r="M2" s="50" t="s">
         <v>101</v>
-      </c>
-      <c r="L2" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="M2" s="50" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="3" spans="2:17" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I3" s="51"/>
       <c r="J3" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="K3" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="L3" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="K3" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="L3" s="51" t="s">
+      <c r="M3" s="51" t="s">
         <v>103</v>
-      </c>
-      <c r="M3" s="51" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
@@ -1167,7 +1167,7 @@
       <c r="C7" s="32"/>
       <c r="D7" s="32"/>
       <c r="E7" s="32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F7" s="32"/>
       <c r="G7" s="33"/>
@@ -1206,7 +1206,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
       <c r="J10" s="44"/>
       <c r="K10" s="45"/>
@@ -1224,7 +1224,7 @@
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>2</v>
@@ -1249,16 +1249,16 @@
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="5" t="s">
+      <c r="E14" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>7</v>
       </c>
       <c r="J14" s="46"/>
       <c r="K14" s="46"/>
@@ -1272,7 +1272,7 @@
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>2</v>
@@ -1289,16 +1289,16 @@
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
@@ -1308,16 +1308,16 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="7" t="s">
+      <c r="E20" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
@@ -1330,13 +1330,13 @@
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>15</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>16</v>
       </c>
       <c r="E22" s="38" t="s">
         <v>2</v>
@@ -1345,14 +1345,14 @@
         <v>123123</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
       <c r="D23" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E23" s="38" t="s">
         <v>2</v>
@@ -1361,14 +1361,14 @@
         <v>3123123</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
       <c r="D24" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E24" s="38" t="s">
         <v>2</v>
@@ -1377,7 +1377,7 @@
         <v>12312</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
@@ -1386,13 +1386,13 @@
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="E26" s="4"/>
     </row>
@@ -1403,13 +1403,13 @@
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="15" t="s">
         <v>22</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>23</v>
       </c>
       <c r="E28" s="16"/>
     </row>
@@ -1420,13 +1420,13 @@
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.3">
@@ -1436,13 +1436,13 @@
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="E32" s="4"/>
     </row>
@@ -1453,13 +1453,13 @@
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.3">
@@ -1469,13 +1469,13 @@
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.3">
@@ -1485,13 +1485,13 @@
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="E38" s="17"/>
     </row>
@@ -1503,13 +1503,13 @@
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.3">
@@ -1520,7 +1520,7 @@
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="19"/>
@@ -1530,13 +1530,13 @@
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="21" t="s">
         <v>37</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D43" s="21" t="s">
-        <v>38</v>
       </c>
       <c r="F43" s="19"/>
       <c r="G43" s="19"/>
@@ -1550,7 +1550,7 @@
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>2</v>
@@ -1570,13 +1570,13 @@
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B47" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" s="23" t="s">
         <v>40</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D47" s="23" t="s">
-        <v>41</v>
       </c>
       <c r="F47" s="19"/>
       <c r="G47" s="19"/>
@@ -1590,13 +1590,13 @@
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B49" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F49" s="19"/>
       <c r="G49" s="19"/>
@@ -1610,13 +1610,13 @@
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B51" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="23" t="s">
         <v>43</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D51" s="23" t="s">
-        <v>44</v>
       </c>
       <c r="F51" s="18"/>
       <c r="G51" s="18"/>
@@ -1628,7 +1628,7 @@
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B53" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>2</v>
@@ -1644,13 +1644,13 @@
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B55" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="21" t="s">
         <v>46</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D55" s="21" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.3">
@@ -1660,7 +1660,7 @@
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B57" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>2</v>
@@ -1677,7 +1677,7 @@
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B59" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>2</v>
@@ -1694,13 +1694,13 @@
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B61" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" s="21" t="s">
         <v>50</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D61" s="21" t="s">
-        <v>51</v>
       </c>
       <c r="E61" s="17"/>
       <c r="F61" s="17"/>
@@ -1713,13 +1713,13 @@
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B63" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D63" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.3">
@@ -1729,7 +1729,7 @@
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>2</v>
@@ -1746,13 +1746,13 @@
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67" s="21" t="s">
         <v>54</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D67" s="21" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.3">
@@ -1762,19 +1762,19 @@
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D69" s="26" t="s">
+      <c r="E69" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="F69" s="27" t="s">
         <v>57</v>
-      </c>
-      <c r="E69" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="F69" s="27" t="s">
-        <v>58</v>
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="17"/>
@@ -1784,13 +1784,13 @@
       <c r="B70" s="1"/>
       <c r="C70" s="2"/>
       <c r="D70" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E70" s="38" t="s">
         <v>2</v>
       </c>
       <c r="F70" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G70" s="1"/>
     </row>
@@ -1801,7 +1801,7 @@
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>2</v>
@@ -1822,19 +1822,19 @@
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D75" s="3" t="s">
+      <c r="E75" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E75" s="11" t="s">
+      <c r="F75" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>2</v>
@@ -1853,19 +1853,19 @@
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="E77" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F77" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>2</v>
@@ -1884,19 +1884,19 @@
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="E79" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F79" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>2</v>
@@ -1912,22 +1912,22 @@
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E81" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D81" s="3" t="s">
+      <c r="F81" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G81" s="21" t="s">
         <v>98</v>
-      </c>
-      <c r="E81" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G81" s="21" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.3">
@@ -1935,13 +1935,13 @@
       <c r="C82" s="2"/>
       <c r="D82" s="17"/>
       <c r="E82" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G82" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.3">
@@ -1964,13 +1964,13 @@
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.3">
@@ -1981,13 +1981,13 @@
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D87" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.3">
@@ -1998,13 +1998,13 @@
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D89" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="E89" s="30"/>
       <c r="F89" s="17"/>
@@ -2018,13 +2018,13 @@
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D91" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="E91" s="31"/>
     </row>
@@ -2035,16 +2035,16 @@
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D93" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D93" s="3" t="s">
+      <c r="E93" s="17" t="s">
         <v>80</v>
-      </c>
-      <c r="E93" s="17" t="s">
-        <v>81</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>2</v>
@@ -2063,16 +2063,16 @@
     </row>
     <row r="95" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B95" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E95" s="17" t="s">
         <v>82</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E95" s="17" t="s">
-        <v>83</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>2</v>
@@ -2091,16 +2091,16 @@
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B97" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D97" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D97" s="3" t="s">
+      <c r="E97" s="17" t="s">
         <v>85</v>
-      </c>
-      <c r="E97" s="17" t="s">
-        <v>86</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>2</v>
@@ -2119,13 +2119,13 @@
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B99" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D99" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="E99" s="17"/>
     </row>
@@ -2136,13 +2136,13 @@
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B101" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D101" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.3">
@@ -2152,13 +2152,13 @@
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B103" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D103" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="E103" s="17"/>
       <c r="F103" s="17"/>
@@ -2194,30 +2194,30 @@
   <sheetData>
     <row r="1" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A1" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="C1" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="D1" s="52" t="s">
         <v>95</v>
-      </c>
-      <c r="D1" s="52" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="D2" s="54" t="s">
         <v>101</v>
-      </c>
-      <c r="C2" s="54" t="s">
-        <v>102</v>
-      </c>
-      <c r="D2" s="54" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2237,30 +2237,30 @@
   <sheetData>
     <row r="1" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A1" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="C1" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="D1" s="52" t="s">
         <v>95</v>
-      </c>
-      <c r="D1" s="52" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="D2" s="54" t="s">
         <v>101</v>
-      </c>
-      <c r="C2" s="54" t="s">
-        <v>102</v>
-      </c>
-      <c r="D2" s="54" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/public/format_biodata.xlsx
+++ b/public/format_biodata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projek Ricko\dispora-papua\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8E96C7-D66D-45A0-8B34-559091D82A31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED70E359-711D-4F21-A10F-92ACFFFD1627}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{0E50471C-7C9E-491A-A24D-1EAF7AC9CFB9}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="107">
-  <si>
-    <t>6472040604020002</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="72">
   <si>
     <t>Nama Lengkap</t>
   </si>
@@ -53,9 +50,6 @@
     <t>Nomor KTP</t>
   </si>
   <si>
-    <t>6474012803040002</t>
-  </si>
-  <si>
     <t>*harus sesuai dengan KK</t>
   </si>
   <si>
@@ -65,18 +59,12 @@
     <t>NPCI Kota / Kabupaten</t>
   </si>
   <si>
-    <t>BONTANG</t>
-  </si>
-  <si>
     <t>*harus sesuai dengan KTP &amp; KK</t>
   </si>
   <si>
     <t>NPCI Provinsi</t>
   </si>
   <si>
-    <t>KALIMANTAN TIMUR</t>
-  </si>
-  <si>
     <t>*harus sesuai dengan  KTP &amp; KK</t>
   </si>
   <si>
@@ -98,87 +86,51 @@
     <t>Nomor Handphone</t>
   </si>
   <si>
-    <t>085250021200</t>
-  </si>
-  <si>
     <t>E-mail Aktif</t>
   </si>
   <si>
-    <t>abroriwildan166@gmail.com</t>
-  </si>
-  <si>
     <t>Tempat Lahir</t>
   </si>
   <si>
-    <t>SAMARINDA</t>
-  </si>
-  <si>
     <t>Tanggal &amp; Tahun Lahir</t>
   </si>
   <si>
-    <t>28 MARET 2014</t>
-  </si>
-  <si>
     <t>Agama</t>
   </si>
   <si>
-    <t>ISLAM</t>
-  </si>
-  <si>
     <t>Status Pernikahan</t>
   </si>
   <si>
-    <t>BELUM MENIKAH</t>
-  </si>
-  <si>
     <t>Jenis Kelamin</t>
   </si>
   <si>
-    <t>LAKI-LAKI</t>
-  </si>
-  <si>
     <t>Pekerjaan</t>
   </si>
   <si>
-    <t>PELAJAR</t>
-  </si>
-  <si>
     <t>Alamat Rumah</t>
   </si>
   <si>
     <t>Jalan</t>
   </si>
   <si>
-    <t>MULAWARMAN ARUMBIA 1 NO.5</t>
-  </si>
-  <si>
     <t>RT. RW Kelurahan</t>
   </si>
   <si>
     <t>Kecamatan</t>
   </si>
   <si>
-    <t>BONTANG UTARA</t>
-  </si>
-  <si>
     <t>Kabupaten</t>
   </si>
   <si>
     <t>Provinsi</t>
   </si>
   <si>
-    <t>KALTIM</t>
-  </si>
-  <si>
     <t>Kode Pos</t>
   </si>
   <si>
     <t>Hobi</t>
   </si>
   <si>
-    <t>OLAHRAGA</t>
-  </si>
-  <si>
     <t>Tinggi Badan</t>
   </si>
   <si>
@@ -188,9 +140,6 @@
     <t>Ukuran Baju</t>
   </si>
   <si>
-    <t>XL</t>
-  </si>
-  <si>
     <t>Ukuran Celana</t>
   </si>
   <si>
@@ -200,9 +149,6 @@
     <t>Golongan Darah</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
     <t>Nomor Passport</t>
   </si>
   <si>
@@ -221,9 +167,6 @@
     <t>Pendidikan SD/SLB</t>
   </si>
   <si>
-    <t xml:space="preserve">SDLB NEGERI BONTANG </t>
-  </si>
-  <si>
     <t>*Nama Sekolah</t>
   </si>
   <si>
@@ -233,15 +176,9 @@
     <t>Pendidikan SMP/MTs/SLB</t>
   </si>
   <si>
-    <t xml:space="preserve">SMPLB NEGERI BONTANG </t>
-  </si>
-  <si>
     <t>Pendidikan SMA / SMK / SLB</t>
   </si>
   <si>
-    <t xml:space="preserve">SMALB NEGERI BONTANG </t>
-  </si>
-  <si>
     <t>Pendidikan Perguruan Tinggi</t>
   </si>
   <si>
@@ -257,25 +194,13 @@
     <t>Kelas Klasifikasi Cabor</t>
   </si>
   <si>
-    <t>TUNA RUNGGU</t>
-  </si>
-  <si>
     <t>Status Klasifikasi</t>
   </si>
   <si>
-    <t>Baru</t>
-  </si>
-  <si>
     <t>Status Prestasi Atlet</t>
   </si>
   <si>
-    <t>Internasional</t>
-  </si>
-  <si>
     <t>Riwayat Klasifikasi</t>
-  </si>
-  <si>
-    <t>BARU</t>
   </si>
   <si>
     <t>Tahun Klasifikasi</t>
@@ -303,28 +228,16 @@
     <t>Vaksinasi Covid-19</t>
   </si>
   <si>
-    <t xml:space="preserve">BELUM VAKSIN </t>
-  </si>
-  <si>
     <t>Tgl Vaksin Kedua</t>
   </si>
   <si>
     <t>Riwayat Disabilitas</t>
   </si>
   <si>
-    <t>SAKIT</t>
-  </si>
-  <si>
     <t>Alat Bantu Disabilitas</t>
   </si>
   <si>
-    <t xml:space="preserve">ALAT BANTU DENGAR </t>
-  </si>
-  <si>
     <t>Jenis Disabilitas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TUNARUNGU WICARA </t>
   </si>
   <si>
     <t>Ajang / Event</t>
@@ -343,15 +256,6 @@
     <t>KOP SURAT</t>
   </si>
   <si>
-    <t>UMKT</t>
-  </si>
-  <si>
-    <t>TI</t>
-  </si>
-  <si>
-    <t>2019/2023</t>
-  </si>
-  <si>
     <t>asda</t>
   </si>
   <si>
@@ -362,15 +266,6 @@
   </si>
   <si>
     <t>asdasd</t>
-  </si>
-  <si>
-    <t>Bulutangkis</t>
-  </si>
-  <si>
-    <t>KOTA BONTANG</t>
-  </si>
-  <si>
-    <t>RICKY</t>
   </si>
 </sst>
 </file>
@@ -1081,8 +976,8 @@
   </sheetPr>
   <dimension ref="B1:Q104"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1103,46 +998,46 @@
     <row r="1" spans="2:17" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I1" s="49"/>
       <c r="J1" s="42" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="K1" s="43" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="L1" s="42" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="M1" s="42" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="2:17" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I2" s="51"/>
       <c r="J2" s="50" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="K2" s="50" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="L2" s="50" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="M2" s="50" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="2:17" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I3" s="51"/>
       <c r="J3" s="51" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="K3" s="51" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="L3" s="51" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="M3" s="51" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
@@ -1167,7 +1062,7 @@
       <c r="C7" s="32"/>
       <c r="D7" s="32"/>
       <c r="E7" s="32" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="F7" s="32"/>
       <c r="G7" s="33"/>
@@ -1200,14 +1095,12 @@
     </row>
     <row r="10" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>106</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D10" s="3"/>
       <c r="J10" s="44"/>
       <c r="K10" s="45"/>
       <c r="L10" s="44"/>
@@ -1224,14 +1117,12 @@
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D12" s="37"/>
       <c r="E12" s="4"/>
       <c r="J12" s="46"/>
       <c r="K12" s="46"/>
@@ -1249,16 +1140,14 @@
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>6</v>
       </c>
       <c r="J14" s="46"/>
       <c r="K14" s="46"/>
@@ -1272,14 +1161,12 @@
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="3">
-        <v>2019</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D16" s="3"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
@@ -1289,16 +1176,14 @@
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>105</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D18" s="3"/>
       <c r="E18" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
@@ -1308,16 +1193,14 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>12</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D20" s="7"/>
       <c r="E20" s="6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
@@ -1330,54 +1213,48 @@
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E22" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="F22" s="10">
-        <v>123123</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F22" s="10"/>
       <c r="G22" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
       <c r="D23" s="12" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E23" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="F23" s="13">
-        <v>3123123</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F23" s="13"/>
       <c r="G23" s="14" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
       <c r="D24" s="12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="F24" s="13">
-        <v>12312</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F24" s="13"/>
       <c r="G24" s="14" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
@@ -1386,14 +1263,12 @@
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D26" s="5"/>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.3">
@@ -1403,14 +1278,12 @@
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>22</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D28" s="15"/>
       <c r="E28" s="16"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.3">
@@ -1420,14 +1293,12 @@
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D30" s="3"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
@@ -1436,14 +1307,12 @@
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D32" s="5"/>
       <c r="E32" s="4"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.3">
@@ -1453,14 +1322,12 @@
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>28</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D34" s="3"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
@@ -1469,14 +1336,12 @@
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D36" s="3"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
@@ -1485,14 +1350,12 @@
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>32</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D38" s="3"/>
       <c r="E38" s="17"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.3">
@@ -1503,14 +1366,12 @@
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D40" s="3"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
@@ -1520,7 +1381,7 @@
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="18" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="19"/>
@@ -1530,14 +1391,12 @@
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="20" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D43" s="21" t="s">
-        <v>37</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D43" s="21"/>
       <c r="F43" s="19"/>
       <c r="G43" s="19"/>
     </row>
@@ -1550,14 +1409,12 @@
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" s="20" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D45" s="23">
-        <v>27</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D45" s="23"/>
       <c r="F45" s="19"/>
       <c r="G45" s="19"/>
     </row>
@@ -1570,14 +1427,12 @@
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B47" s="20" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D47" s="23" t="s">
-        <v>40</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D47" s="23"/>
       <c r="F47" s="19"/>
       <c r="G47" s="19"/>
     </row>
@@ -1590,14 +1445,12 @@
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B49" s="20" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D49" s="23" t="s">
-        <v>9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D49" s="23"/>
       <c r="F49" s="19"/>
       <c r="G49" s="19"/>
     </row>
@@ -1610,14 +1463,12 @@
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B51" s="20" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D51" s="23" t="s">
-        <v>43</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D51" s="23"/>
       <c r="F51" s="18"/>
       <c r="G51" s="18"/>
     </row>
@@ -1628,14 +1479,12 @@
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B53" s="25" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D53" s="21">
-        <v>75313</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D53" s="21"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
@@ -1644,14 +1493,12 @@
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B55" s="1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D55" s="21" t="s">
-        <v>46</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D55" s="21"/>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
@@ -1660,14 +1507,12 @@
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B57" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D57" s="21">
-        <v>165</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D57" s="21"/>
       <c r="E57" s="17"/>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.3">
@@ -1677,14 +1522,12 @@
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B59" s="1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D59" s="21">
-        <v>70</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D59" s="21"/>
       <c r="E59" s="17"/>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.3">
@@ -1694,14 +1537,12 @@
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B61" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D61" s="21" t="s">
-        <v>50</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D61" s="21"/>
       <c r="E61" s="17"/>
       <c r="F61" s="17"/>
       <c r="G61" s="17"/>
@@ -1713,14 +1554,12 @@
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B63" s="1" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D63" s="21" t="s">
-        <v>50</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D63" s="21"/>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
@@ -1729,14 +1568,12 @@
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="1" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D65" s="21">
-        <v>41</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D65" s="21"/>
       <c r="E65" s="17"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.3">
@@ -1746,14 +1583,12 @@
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="1" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D67" s="21" t="s">
-        <v>54</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D67" s="21"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
@@ -1762,19 +1597,19 @@
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="1" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D69" s="26" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="E69" s="39" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F69" s="27" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="17"/>
@@ -1784,13 +1619,13 @@
       <c r="B70" s="1"/>
       <c r="C70" s="2"/>
       <c r="D70" s="28" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="E70" s="38" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F70" s="29" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="G70" s="1"/>
     </row>
@@ -1801,14 +1636,12 @@
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="1" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D72" s="21">
-        <v>123123</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D72" s="21"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
     </row>
@@ -1822,26 +1655,22 @@
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="1" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>61</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D75" s="3"/>
       <c r="E75" s="11" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H75" s="3">
-        <v>2013</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H75" s="3"/>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
@@ -1853,26 +1682,22 @@
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="1" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>65</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D77" s="3"/>
       <c r="E77" s="11" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H77" s="3">
-        <v>2016</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H77" s="3"/>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
@@ -1884,26 +1709,22 @@
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>67</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D79" s="3"/>
       <c r="E79" s="11" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H79" s="3">
-        <v>2019</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H79" s="3"/>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
@@ -1912,37 +1733,31 @@
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="1" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>97</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D81" s="3"/>
       <c r="E81" s="17" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G81" s="21" t="s">
-        <v>98</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G81" s="21"/>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="2"/>
       <c r="D82" s="17"/>
       <c r="E82" s="17" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G82" s="21" t="s">
-        <v>99</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G82" s="21"/>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="1"/>
@@ -1964,14 +1779,12 @@
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="1" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>104</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D85" s="3"/>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
@@ -1981,14 +1794,12 @@
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="1" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>73</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D87" s="3"/>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
@@ -1998,14 +1809,12 @@
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="1" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>75</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D89" s="3"/>
       <c r="E89" s="30"/>
       <c r="F89" s="17"/>
       <c r="G89" s="17"/>
@@ -2018,14 +1827,12 @@
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="1" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>77</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D91" s="3"/>
       <c r="E91" s="31"/>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.3">
@@ -2035,23 +1842,19 @@
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="1" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>79</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D93" s="3"/>
       <c r="E93" s="17" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G93" s="41">
-        <v>43466</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G93" s="41"/>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
@@ -2063,23 +1866,19 @@
     </row>
     <row r="95" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B95" s="1" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>79</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D95" s="3"/>
       <c r="E95" s="17" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G95" s="41">
-        <v>43466</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G95" s="41"/>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
@@ -2091,23 +1890,19 @@
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B97" s="1" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>84</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D97" s="3"/>
       <c r="E97" s="17" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G97" s="41">
-        <v>43466</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G97" s="41"/>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
@@ -2119,14 +1914,12 @@
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B99" s="1" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>87</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D99" s="3"/>
       <c r="E99" s="17"/>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.3">
@@ -2136,14 +1929,12 @@
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B101" s="1" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>89</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D101" s="3"/>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
@@ -2152,14 +1943,12 @@
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B103" s="1" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>91</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D103" s="3"/>
       <c r="E103" s="17"/>
       <c r="F103" s="17"/>
       <c r="G103" s="17"/>
@@ -2169,16 +1958,13 @@
       <c r="C104" s="2"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D28" r:id="rId1" xr:uid="{A06E0083-DB66-4858-881F-63E01C979900}"/>
-  </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="10000" scale="68" fitToHeight="0" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="10000" scale="68" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="83" max="8" man="1"/>
   </rowBreaks>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2187,38 +1973,33 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="4" width="22.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="78" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="52" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="B1" s="53" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="C1" s="52" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="D1" s="52" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="54" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="54" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="54" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" s="54" t="s">
-        <v>101</v>
-      </c>
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2230,38 +2011,33 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="4" width="25.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="78" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="52" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="B1" s="53" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="C1" s="52" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="D1" s="52" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="54" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="54" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="54" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" s="54" t="s">
-        <v>101</v>
-      </c>
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
